--- a/rosters/2023/Philadelphia/Philadelphia.xlsx
+++ b/rosters/2023/Philadelphia/Philadelphia.xlsx
@@ -64,24 +64,21 @@
     <t>Montrezl Harrell</t>
   </si>
   <si>
-    <t>Matisse Thybulle</t>
+    <t>Joel Embiid</t>
   </si>
   <si>
     <t>Paul Reed</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
     <t>Danuel House Jr.</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
     <t>Furkan Korkmaz</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>Julian Champagnie (TW)</t>
   </si>
   <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
     <t>Louis King (TW)</t>
   </si>
   <si>
@@ -121,15 +121,15 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>7-0</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
@@ -151,24 +151,21 @@
     <t>January 26, 1994</t>
   </si>
   <si>
-    <t>March 4, 1997</t>
+    <t>March 16, 1994</t>
   </si>
   <si>
     <t>June 14, 1999</t>
   </si>
   <si>
+    <t>August 26, 1989</t>
+  </si>
+  <si>
+    <t>November 4, 2000</t>
+  </si>
+  <si>
     <t>June 7, 1993</t>
   </si>
   <si>
-    <t>March 16, 1994</t>
-  </si>
-  <si>
-    <t>August 26, 1989</t>
-  </si>
-  <si>
-    <t>November 4, 2000</t>
-  </si>
-  <si>
     <t>July 24, 1997</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
     <t>June 29, 2001</t>
   </si>
   <si>
+    <t>January 31, 1998</t>
+  </si>
+  <si>
     <t>April 6, 1999</t>
   </si>
   <si>
@@ -202,24 +202,24 @@
     <t>7</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Iowa State</t>
   </si>
   <si>
@@ -238,27 +238,27 @@
     <t>Louisville</t>
   </si>
   <si>
-    <t>Washington</t>
+    <t>Kansas</t>
   </si>
   <si>
     <t>DePaul</t>
   </si>
   <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Arizona State</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>St. John's</t>
   </si>
   <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
     <t>Oregon</t>
   </si>
   <si>
@@ -280,24 +280,21 @@
     <t>https://www.basketball-reference.com/players/h/harremo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/thybuma01.html</t>
+    <t>https://www.basketball-reference.com/players/e/embiijo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/reedpa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hardeja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/maxeyty01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/houseda01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/e/embiijo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hardeja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/maxeyty01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/k/korkmfu01.html</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/champju01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/mcdanja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kinglo02.html</t>
@@ -931,28 +931,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
         <v>74</v>
@@ -975,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>210</v>
@@ -987,7 +987,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
         <v>75</v>
@@ -1001,16 +1001,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>220</v>
@@ -1022,7 +1022,7 @@
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
         <v>76</v>
@@ -1036,28 +1036,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -1071,16 +1071,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>220</v>
@@ -1092,7 +1092,7 @@
         <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -1106,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1115,22 +1115,19 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>93</v>
@@ -1141,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1150,19 +1147,22 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G14" t="s">
         <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
         <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>94</v>
@@ -1173,19 +1173,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -1197,7 +1197,7 @@
         <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>95</v>
@@ -1208,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -1217,10 +1217,10 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -1261,7 +1261,7 @@
         <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
         <v>81</v>

--- a/rosters/2023/Philadelphia/Philadelphia.xlsx
+++ b/rosters/2023/Philadelphia/Philadelphia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>No.</t>
   </si>
@@ -85,15 +85,18 @@
     <t>Jaden Springer</t>
   </si>
   <si>
-    <t>Julian Champagnie (TW)</t>
-  </si>
-  <si>
     <t>Jalen McDaniels</t>
   </si>
   <si>
     <t>Louis King (TW)</t>
   </si>
   <si>
+    <t>Mac McClung (TW)</t>
+  </si>
+  <si>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
@@ -172,15 +175,18 @@
     <t>September 25, 2002</t>
   </si>
   <si>
-    <t>June 29, 2001</t>
-  </si>
-  <si>
     <t>January 31, 1998</t>
   </si>
   <si>
     <t>April 6, 1999</t>
   </si>
   <si>
+    <t>January 6, 1999</t>
+  </si>
+  <si>
+    <t>August 12, 1989</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -190,36 +196,6 @@
     <t>tr</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Iowa State</t>
   </si>
   <si>
@@ -253,15 +229,15 @@
     <t>Texas A&amp;M</t>
   </si>
   <si>
-    <t>St. John's</t>
-  </si>
-  <si>
     <t>San Diego State</t>
   </si>
   <si>
     <t>Oregon</t>
   </si>
   <si>
+    <t>Georgetown, Texas Tech</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/niangge01.html</t>
   </si>
   <si>
@@ -301,13 +277,16 @@
     <t>https://www.basketball-reference.com/players/s/sprinja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/champju01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/mcdanja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kinglo02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/mccluma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/d/dedmode01.html</t>
   </si>
 </sst>
 </file>
@@ -678,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,28 +706,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>230</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -762,28 +741,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -797,28 +776,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -832,28 +811,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>226</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -867,28 +846,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,28 +881,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,28 +916,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>280</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
         <v>58</v>
       </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -972,28 +951,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>210</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1007,28 +986,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1042,28 +1021,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,28 +1056,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>220</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,25 +1091,25 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>202</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1144,28 +1123,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>204</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1173,69 +1152,66 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1246,28 +1222,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>185</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <v>205</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>97</v>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>245</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1288,6 +1296,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Philadelphia/Philadelphia.xlsx
+++ b/rosters/2023/Philadelphia/Philadelphia.xlsx
@@ -46,30 +46,30 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
     <t>Georges Niang</t>
   </si>
   <si>
     <t>P.J. Tucker</t>
   </si>
   <si>
-    <t>De'Anthony Melton</t>
+    <t>Shake Milton</t>
   </si>
   <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>Shake Milton</t>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Paul Reed</t>
   </si>
   <si>
     <t>Montrezl Harrell</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Paul Reed</t>
-  </si>
-  <si>
     <t>James Harden</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Furkan Korkmaz</t>
   </si>
   <si>
+    <t>Jalen McDaniels</t>
+  </si>
+  <si>
     <t>Jaden Springer</t>
   </si>
   <si>
-    <t>Jalen McDaniels</t>
-  </si>
-  <si>
     <t>Louis King (TW)</t>
   </si>
   <si>
@@ -97,12 +97,12 @@
     <t>Dewayne Dedmon</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -112,15 +112,15 @@
     <t>SF</t>
   </si>
   <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>6-7</t>
   </si>
   <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -136,30 +136,30 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>May 28, 1998</t>
+  </si>
+  <si>
     <t>June 17, 1993</t>
   </si>
   <si>
     <t>May 5, 1985</t>
   </si>
   <si>
-    <t>May 28, 1998</t>
+    <t>September 26, 1996</t>
   </si>
   <si>
     <t>July 15, 1992</t>
   </si>
   <si>
-    <t>September 26, 1996</t>
+    <t>March 16, 1994</t>
+  </si>
+  <si>
+    <t>June 14, 1999</t>
   </si>
   <si>
     <t>January 26, 1994</t>
   </si>
   <si>
-    <t>March 16, 1994</t>
-  </si>
-  <si>
-    <t>June 14, 1999</t>
-  </si>
-  <si>
     <t>August 26, 1989</t>
   </si>
   <si>
@@ -172,12 +172,12 @@
     <t>July 24, 1997</t>
   </si>
   <si>
+    <t>January 31, 1998</t>
+  </si>
+  <si>
     <t>September 25, 2002</t>
   </si>
   <si>
-    <t>January 31, 1998</t>
-  </si>
-  <si>
     <t>April 6, 1999</t>
   </si>
   <si>
@@ -196,30 +196,30 @@
     <t>tr</t>
   </si>
   <si>
+    <t>USC</t>
+  </si>
+  <si>
     <t>Iowa State</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>USC</t>
+    <t>SMU</t>
   </si>
   <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>SMU</t>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>DePaul</t>
   </si>
   <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>DePaul</t>
-  </si>
-  <si>
     <t>Arizona State</t>
   </si>
   <si>
@@ -238,30 +238,30 @@
     <t>Georgetown, Texas Tech</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/meltode01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/niangge01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/t/tuckepj01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/meltode01.html</t>
+    <t>https://www.basketball-reference.com/players/m/miltosh01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/harrito02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/miltosh01.html</t>
+    <t>https://www.basketball-reference.com/players/e/embiijo01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/r/reedpa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/harremo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/e/embiijo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/reedpa01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/hardeja01.html</t>
   </si>
   <si>
@@ -274,10 +274,10 @@
     <t>https://www.basketball-reference.com/players/k/korkmfu01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mcdanja01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/sprinja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mcdanja01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kinglo02.html</t>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -712,7 +712,7 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
@@ -721,7 +721,7 @@
         <v>57</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>60</v>
@@ -735,19 +735,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -756,7 +756,7 @@
         <v>57</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -782,7 +782,7 @@
         <v>34</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -791,7 +791,7 @@
         <v>57</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -805,19 +805,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -826,7 +826,7 @@
         <v>57</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>63</v>
@@ -840,19 +840,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -861,7 +861,7 @@
         <v>57</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>64</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -884,19 +884,19 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
         <v>65</v>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -919,19 +919,19 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>66</v>
@@ -945,7 +945,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -954,10 +954,10 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -966,7 +966,7 @@
         <v>57</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
         <v>67</v>
@@ -986,10 +986,10 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>220</v>
@@ -1024,7 +1024,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>200</v>
@@ -1094,7 +1094,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>202</v>
@@ -1117,19 +1117,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -1138,10 +1138,10 @@
         <v>57</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>86</v>
@@ -1152,19 +1152,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -1173,10 +1173,10 @@
         <v>57</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>87</v>
@@ -1193,7 +1193,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16">
         <v>205</v>
@@ -1225,7 +1225,7 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17">
         <v>185</v>
@@ -1272,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>90</v>

--- a/rosters/2023/Philadelphia/Philadelphia.xlsx
+++ b/rosters/2023/Philadelphia/Philadelphia.xlsx
@@ -88,15 +88,15 @@
     <t>Jaden Springer</t>
   </si>
   <si>
+    <t>Dewayne Dedmon</t>
+  </si>
+  <si>
     <t>Louis King (TW)</t>
   </si>
   <si>
     <t>Mac McClung (TW)</t>
   </si>
   <si>
-    <t>Dewayne Dedmon</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -178,15 +178,15 @@
     <t>September 25, 2002</t>
   </si>
   <si>
+    <t>August 12, 1989</t>
+  </si>
+  <si>
     <t>April 6, 1999</t>
   </si>
   <si>
     <t>January 6, 1999</t>
   </si>
   <si>
-    <t>August 12, 1989</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -280,13 +280,13 @@
     <t>https://www.basketball-reference.com/players/s/sprinja01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/dedmode01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/k/kinglo02.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/mccluma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/dedmode01.html</t>
   </si>
 </sst>
 </file>
@@ -1186,17 +1186,20 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F16">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -1205,10 +1208,10 @@
         <v>57</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>88</v>
@@ -1222,13 +1225,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1237,10 +1240,10 @@
         <v>57</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>89</v>
@@ -1254,13 +1257,13 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -1269,10 +1272,10 @@
         <v>57</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>90</v>

--- a/rosters/2023/Philadelphia/Philadelphia.xlsx
+++ b/rosters/2023/Philadelphia/Philadelphia.xlsx
@@ -52,30 +52,30 @@
     <t>Georges Niang</t>
   </si>
   <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Tobias Harris</t>
+  </si>
+  <si>
     <t>P.J. Tucker</t>
   </si>
   <si>
-    <t>Shake Milton</t>
-  </si>
-  <si>
-    <t>Tobias Harris</t>
-  </si>
-  <si>
     <t>Joel Embiid</t>
   </si>
   <si>
     <t>Paul Reed</t>
   </si>
   <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
     <t>Montrezl Harrell</t>
   </si>
   <si>
-    <t>James Harden</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
     <t>Danuel House Jr.</t>
   </si>
   <si>
@@ -142,30 +142,30 @@
     <t>June 17, 1993</t>
   </si>
   <si>
+    <t>September 26, 1996</t>
+  </si>
+  <si>
+    <t>July 15, 1992</t>
+  </si>
+  <si>
     <t>May 5, 1985</t>
   </si>
   <si>
-    <t>September 26, 1996</t>
-  </si>
-  <si>
-    <t>July 15, 1992</t>
-  </si>
-  <si>
     <t>March 16, 1994</t>
   </si>
   <si>
     <t>June 14, 1999</t>
   </si>
   <si>
+    <t>August 26, 1989</t>
+  </si>
+  <si>
+    <t>November 4, 2000</t>
+  </si>
+  <si>
     <t>January 26, 1994</t>
   </si>
   <si>
-    <t>August 26, 1989</t>
-  </si>
-  <si>
-    <t>November 4, 2000</t>
-  </si>
-  <si>
     <t>June 7, 1993</t>
   </si>
   <si>
@@ -202,30 +202,30 @@
     <t>Iowa State</t>
   </si>
   <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
     <t>DePaul</t>
   </si>
   <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Louisville</t>
   </si>
   <si>
-    <t>Arizona State</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>Texas A&amp;M</t>
   </si>
   <si>
@@ -244,28 +244,28 @@
     <t>https://www.basketball-reference.com/players/n/niangge01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/miltosh01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/h/harrito02.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/t/tuckepj01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/miltosh01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/harrito02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/e/embiijo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/r/reedpa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hardeja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/m/maxeyty01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/harremo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hardeja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/maxeyty01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/houseda01.html</t>
@@ -770,19 +770,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -791,7 +791,7 @@
         <v>57</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>62</v>
@@ -805,19 +805,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -826,7 +826,7 @@
         <v>57</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>63</v>
@@ -840,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -849,10 +849,10 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -945,19 +945,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -966,7 +966,7 @@
         <v>57</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>67</v>
@@ -980,19 +980,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
@@ -1001,7 +1001,7 @@
         <v>57</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>68</v>
@@ -1015,19 +1015,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
@@ -1036,7 +1036,7 @@
         <v>57</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
         <v>69</v>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>87</v>

--- a/rosters/2023/Philadelphia/Philadelphia.xlsx
+++ b/rosters/2023/Philadelphia/Philadelphia.xlsx
@@ -46,33 +46,33 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Georges Niang</t>
+  </si>
+  <si>
     <t>De'Anthony Melton</t>
   </si>
   <si>
-    <t>Georges Niang</t>
-  </si>
-  <si>
     <t>Shake Milton</t>
   </si>
   <si>
+    <t>P.J. Tucker</t>
+  </si>
+  <si>
     <t>Tobias Harris</t>
   </si>
   <si>
-    <t>P.J. Tucker</t>
+    <t>Paul Reed</t>
   </si>
   <si>
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Paul Reed</t>
+    <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>James Harden</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
     <t>Montrezl Harrell</t>
   </si>
   <si>
@@ -91,18 +91,18 @@
     <t>Dewayne Dedmon</t>
   </si>
   <si>
+    <t>Mac McClung (TW)</t>
+  </si>
+  <si>
     <t>Louis King (TW)</t>
   </si>
   <si>
-    <t>Mac McClung (TW)</t>
+    <t>PF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -112,57 +112,57 @@
     <t>SF</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>6-2</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>7-0</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>6-6</t>
   </si>
   <si>
     <t>6-4</t>
   </si>
   <si>
+    <t>June 17, 1993</t>
+  </si>
+  <si>
     <t>May 28, 1998</t>
   </si>
   <si>
-    <t>June 17, 1993</t>
-  </si>
-  <si>
     <t>September 26, 1996</t>
   </si>
   <si>
+    <t>May 5, 1985</t>
+  </si>
+  <si>
     <t>July 15, 1992</t>
   </si>
   <si>
-    <t>May 5, 1985</t>
+    <t>June 14, 1999</t>
   </si>
   <si>
     <t>March 16, 1994</t>
   </si>
   <si>
-    <t>June 14, 1999</t>
+    <t>November 4, 2000</t>
   </si>
   <si>
     <t>August 26, 1989</t>
   </si>
   <si>
-    <t>November 4, 2000</t>
-  </si>
-  <si>
     <t>January 26, 1994</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>August 12, 1989</t>
   </si>
   <si>
+    <t>January 6, 1999</t>
+  </si>
+  <si>
     <t>April 6, 1999</t>
   </si>
   <si>
-    <t>January 6, 1999</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -196,33 +196,33 @@
     <t>tr</t>
   </si>
   <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
     <t>USC</t>
   </si>
   <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
     <t>SMU</t>
   </si>
   <si>
+    <t>Texas</t>
+  </si>
+  <si>
     <t>Tennessee</t>
   </si>
   <si>
-    <t>Texas</t>
+    <t>DePaul</t>
   </si>
   <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>DePaul</t>
+    <t>Kentucky</t>
   </si>
   <si>
     <t>Arizona State</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>Louisville</t>
   </si>
   <si>
@@ -232,39 +232,39 @@
     <t>San Diego State</t>
   </si>
   <si>
+    <t>Georgetown, Texas Tech</t>
+  </si>
+  <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>Georgetown, Texas Tech</t>
+    <t>https://www.basketball-reference.com/players/n/niangge01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/m/meltode01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/n/niangge01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/miltosh01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/tuckepj01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/harrito02.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/tuckepj01.html</t>
+    <t>https://www.basketball-reference.com/players/r/reedpa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/e/embiijo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/reedpa01.html</t>
+    <t>https://www.basketball-reference.com/players/m/maxeyty01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/h/hardeja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/m/maxeyty01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/h/harremo01.html</t>
   </si>
   <si>
@@ -283,10 +283,10 @@
     <t>https://www.basketball-reference.com/players/d/dedmode01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/mccluma01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/k/kinglo02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/mccluma01.html</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -712,7 +712,7 @@
         <v>32</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
@@ -721,7 +721,7 @@
         <v>57</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>60</v>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
@@ -756,7 +756,7 @@
         <v>57</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
         <v>61</v>
@@ -805,19 +805,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -840,19 +840,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -887,16 +887,16 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>65</v>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -922,16 +922,16 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
         <v>66</v>
@@ -945,19 +945,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -966,7 +966,7 @@
         <v>57</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>67</v>
@@ -980,19 +980,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
@@ -1001,7 +1001,7 @@
         <v>57</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>68</v>
@@ -1024,7 +1024,7 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>240</v>
@@ -1094,7 +1094,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>202</v>
@@ -1126,7 +1126,7 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>205</v>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>87</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>245</v>
@@ -1211,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>88</v>
@@ -1221,17 +1221,20 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
       <c r="F17">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -1240,7 +1243,7 @@
         <v>57</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>72</v>
@@ -1257,13 +1260,13 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
       </c>
       <c r="F18">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -1272,7 +1275,7 @@
         <v>57</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
         <v>73</v>
